--- a/Lab_05/data.xlsx
+++ b/Lab_05/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Python\Basics_of_econometrics\Lab_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D762DC0-B4DC-4C95-9920-EA1118B899A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B2063-5C23-46AE-BF26-8D71952DA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane_01" sheetId="1" r:id="rId1"/>
     <sheet name="dane_02" sheetId="2" r:id="rId2"/>
+    <sheet name="dane_03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>X1</t>
   </si>
@@ -38,6 +39,9 @@
   </si>
   <si>
     <t>X4</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -609,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BE516D-B1E9-4BBD-8CB0-08F2A83D76FA}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -695,4 +699,313 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBCB709-4EC7-41DF-A8DA-295F8646E032}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>18.3</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>26.5</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>4.5</v>
+      </c>
+      <c r="D8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>6.5</v>
+      </c>
+      <c r="D10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>32.5</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>3.5</v>
+      </c>
+      <c r="D14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>36.5</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>42.5</v>
+      </c>
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>3.5</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>2.5</v>
+      </c>
+      <c r="D19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>